--- a/Design Deatils/Design Deatils/DD.xlsx
+++ b/Design Deatils/Design Deatils/DD.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DESIGN DATA\Design Deatils\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Akash\Clouds\All_Designs\Design Deatils\Design Deatils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B938E0A7-EB2C-46DF-8ACD-1AE1C60BFC9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7484CF34-C208-49B2-B0A7-7A5537DE4D6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5526,8 +5526,8 @@
   <dimension ref="A1:AC629"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7813,7 +7813,9 @@
       </c>
     </row>
     <row r="84" spans="1:9" ht="109.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="4"/>
+      <c r="A84" s="4">
+        <v>83</v>
+      </c>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
       <c r="D84" s="5"/>
